--- a/12/5/6/Mensual 1954 a 2021 - Mensual.xlsx
+++ b/12/5/6/Mensual 1954 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="811">
   <si>
     <t>Serie</t>
   </si>
@@ -2444,6 +2444,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -2801,7 +2804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F805"/>
+  <dimension ref="A1:F806"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14455,6 +14458,26 @@
         <v>0.06</v>
       </c>
     </row>
+    <row r="806" spans="1:6">
+      <c r="A806" t="s">
+        <v>810</v>
+      </c>
+      <c r="B806">
+        <v>0.25</v>
+      </c>
+      <c r="C806">
+        <v>0</v>
+      </c>
+      <c r="D806">
+        <v>1.31</v>
+      </c>
+      <c r="E806">
+        <v>-0.35</v>
+      </c>
+      <c r="F806">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/5/6/Mensual 1954 a 2021 - Mensual.xlsx
+++ b/12/5/6/Mensual 1954 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="812">
   <si>
     <t>Serie</t>
   </si>
@@ -2447,6 +2447,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -2804,7 +2807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F806"/>
+  <dimension ref="A1:F807"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14478,6 +14481,26 @@
         <v>0.03</v>
       </c>
     </row>
+    <row r="807" spans="1:6">
+      <c r="A807" t="s">
+        <v>811</v>
+      </c>
+      <c r="B807">
+        <v>0.25</v>
+      </c>
+      <c r="C807">
+        <v>0</v>
+      </c>
+      <c r="D807">
+        <v>1.28</v>
+      </c>
+      <c r="E807">
+        <v>-0.46</v>
+      </c>
+      <c r="F807">
+        <v>0.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/5/6/Mensual 1954 a 2021 - Mensual.xlsx
+++ b/12/5/6/Mensual 1954 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="813">
   <si>
     <t>Serie</t>
   </si>
@@ -2450,6 +2450,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -2807,7 +2810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F807"/>
+  <dimension ref="A1:F808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14501,6 +14504,26 @@
         <v>0.02</v>
       </c>
     </row>
+    <row r="808" spans="1:6">
+      <c r="A808" t="s">
+        <v>812</v>
+      </c>
+      <c r="B808">
+        <v>0.25</v>
+      </c>
+      <c r="C808">
+        <v>0</v>
+      </c>
+      <c r="D808">
+        <v>1.37</v>
+      </c>
+      <c r="E808">
+        <v>-0.3</v>
+      </c>
+      <c r="F808">
+        <v>0.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/5/6/Mensual 1954 a 2021 - Mensual.xlsx
+++ b/12/5/6/Mensual 1954 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="814">
   <si>
     <t>Serie</t>
   </si>
@@ -2453,6 +2453,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -2810,7 +2813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F808"/>
+  <dimension ref="A1:F809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14524,6 +14527,26 @@
         <v>0.05</v>
       </c>
     </row>
+    <row r="809" spans="1:6">
+      <c r="A809" t="s">
+        <v>813</v>
+      </c>
+      <c r="B809">
+        <v>0.25</v>
+      </c>
+      <c r="C809">
+        <v>0</v>
+      </c>
+      <c r="D809">
+        <v>1.58</v>
+      </c>
+      <c r="E809">
+        <v>-0.15</v>
+      </c>
+      <c r="F809">
+        <v>0.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
